--- a/(TIGER) MSC ZOE GT511W - KRPUS.xlsx
+++ b/(TIGER) MSC ZOE GT511W - KRPUS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mydocs.msc.com/personal/seonju_yun_msc_com/Documents/바탕 화면/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\doc_cs_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{317AF2FE-B7A3-4FE8-A9A0-908711718DF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D984FD5B-CAC9-49A7-9A64-E113D7EB98DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{435925CD-47F6-4F6A-A4F7-4EFEECF55772}"/>
+    <workbookView xWindow="-19298" yWindow="-735" windowWidth="19396" windowHeight="10275" xr2:uid="{435925CD-47F6-4F6A-A4F7-4EFEECF55772}"/>
   </bookViews>
   <sheets>
     <sheet name="(T) MSC ZOE GT511W" sheetId="1" r:id="rId1"/>
@@ -23,17 +23,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -67,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="71">
   <si>
     <r>
       <rPr>
@@ -378,20 +367,28 @@
     <t>TTL</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>SDF</t>
+    <phoneticPr fontId="57" type="noConversion"/>
+  </si>
+  <si>
+    <t>FFF</t>
+    <phoneticPr fontId="57" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
-    <numFmt numFmtId="165" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
+    <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="57">
+  <fonts count="58">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -400,7 +397,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -432,6 +429,8 @@
       <u/>
       <sz val="18"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <b/>
@@ -465,11 +464,15 @@
     <font>
       <sz val="11"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <b/>
@@ -494,6 +497,8 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <b/>
@@ -524,7 +529,7 @@
     <font>
       <b/>
       <sz val="17"/>
-      <name val="Aptos Narrow"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -532,7 +537,7 @@
       <b/>
       <i/>
       <sz val="11"/>
-      <name val="Aptos Narrow"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -541,7 +546,7 @@
       <b/>
       <i/>
       <sz val="11"/>
-      <name val="Aptos Narrow"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -549,7 +554,7 @@
       <b/>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="Aptos Narrow"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -558,7 +563,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Aptos Narrow"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -567,18 +572,22 @@
       <b/>
       <sz val="13"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <b/>
       <sz val="13"/>
       <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -598,6 +607,8 @@
       <b/>
       <sz val="10"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="9"/>
@@ -615,6 +626,8 @@
     <font>
       <sz val="10"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="10"/>
@@ -632,7 +645,7 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -665,7 +678,7 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Aptos Display"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -682,12 +695,16 @@
       <sz val="9"/>
       <color indexed="8"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <b/>
@@ -701,12 +718,16 @@
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color indexed="10"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="8"/>
@@ -760,7 +781,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Aptos Narrow"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -770,6 +791,13 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1277,15 +1305,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1293,7 +1315,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="24" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1301,7 +1323,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="24" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1310,7 +1332,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1321,67 +1343,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1415,7 +1377,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="38" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="38" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1435,7 +1397,7 @@
     </xf>
     <xf numFmtId="0" fontId="35" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="38" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="38" fillId="8" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1606,6 +1568,72 @@
     </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2107,1084 +2135,1088 @@
   </sheetPr>
   <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:N6"/>
+    <sheetView tabSelected="1" topLeftCell="E4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="23.75" style="124" customWidth="1"/>
+    <col min="1" max="1" width="23.75" style="102" customWidth="1"/>
     <col min="2" max="2" width="19.125" customWidth="1"/>
     <col min="3" max="3" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.875" style="125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.875" style="103" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.125" customWidth="1"/>
     <col min="10" max="11" width="17.875" customWidth="1"/>
-    <col min="12" max="12" width="17.5" style="126" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5" style="104" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.25" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="26.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
     </row>
     <row r="2" spans="1:16" ht="26.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="9" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
     </row>
     <row r="3" spans="1:16" ht="26.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="13" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="14">
+      <c r="M3" s="12">
         <f>COUNTIF(A9:A32,L3)</f>
         <v>2</v>
       </c>
-      <c r="N3" s="14">
+      <c r="N3" s="12">
         <f>SUMIF(A9:A32,L3,G9:G32)</f>
         <v>9</v>
       </c>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
     </row>
     <row r="4" spans="1:16" ht="26.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="6"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="4"/>
     </row>
     <row r="5" spans="1:16" ht="17.25" thickBot="1">
-      <c r="A5" s="19"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
     </row>
     <row r="6" spans="1:16" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-    </row>
-    <row r="7" spans="1:16" ht="16.5">
-      <c r="A7" s="24" t="s">
+      <c r="B6" s="112"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="112"/>
+      <c r="J6" s="112"/>
+      <c r="K6" s="112"/>
+      <c r="L6" s="112"/>
+      <c r="M6" s="112"/>
+      <c r="N6" s="113"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="29" t="s">
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="120"/>
+      <c r="H7" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="30" t="s">
+      <c r="I7" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="31" t="s">
+      <c r="J7" s="125" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="29" t="s">
+      <c r="K7" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="32" t="s">
+      <c r="L7" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="32" t="s">
+      <c r="M7" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="N7" s="33"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
     </row>
     <row r="8" spans="1:16" ht="17.25" thickBot="1">
-      <c r="A8" s="34"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="36" t="s">
+      <c r="A8" s="115"/>
+      <c r="B8" s="117"/>
+      <c r="C8" s="117"/>
+      <c r="D8" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="36" t="s">
+      <c r="F8" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="36" t="s">
+      <c r="G8" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="37"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-    </row>
-    <row r="9" spans="1:16" s="6" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A9" s="42" t="s">
+      <c r="H8" s="122"/>
+      <c r="I8" s="124"/>
+      <c r="J8" s="126"/>
+      <c r="K8" s="122"/>
+      <c r="L8" s="106"/>
+      <c r="M8" s="106"/>
+      <c r="N8" s="108"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+    </row>
+    <row r="9" spans="1:16" s="4" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A9" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="45"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="47" t="s">
+      <c r="D9" s="23"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="49" t="s">
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="M9" s="50"/>
-      <c r="N9" s="51"/>
-      <c r="O9" s="52"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="30"/>
     </row>
     <row r="10" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A10" s="53"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="61"/>
-      <c r="M10" s="62"/>
-      <c r="N10" s="62"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
     </row>
     <row r="11" spans="1:16" ht="18.75" customHeight="1">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="55" t="s">
+      <c r="B11" s="32"/>
+      <c r="C11" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="56">
+      <c r="D11" s="34">
         <v>2</v>
       </c>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="64">
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="42">
         <f t="shared" ref="G11" si="0">D11+(E11*2)+(F11*2)</f>
         <v>2</v>
       </c>
-      <c r="H11" s="65" t="s">
+      <c r="H11" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="66" t="s">
+      <c r="I11" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="J11" s="67" t="s">
+      <c r="J11" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="K11" s="68"/>
-      <c r="L11" s="61" t="s">
+      <c r="K11" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="L11" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="M11" s="62"/>
-      <c r="N11" s="62"/>
-      <c r="O11" s="69"/>
-      <c r="P11" s="6"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="47"/>
+      <c r="P11" s="4"/>
     </row>
     <row r="12" spans="1:16" ht="18.75" customHeight="1">
-      <c r="A12" s="70"/>
-      <c r="B12" s="71"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="74"/>
-      <c r="M12" s="75"/>
-      <c r="N12" s="75"/>
-      <c r="O12" s="69"/>
-      <c r="P12" s="6"/>
+      <c r="A12" s="48"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="47"/>
+      <c r="P12" s="4"/>
     </row>
     <row r="13" spans="1:16" ht="18.75" customHeight="1">
-      <c r="A13" s="70"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="76"/>
-      <c r="K13" s="77"/>
-      <c r="L13" s="74"/>
-      <c r="M13" s="75"/>
-      <c r="N13" s="75"/>
-      <c r="O13" s="69"/>
-      <c r="P13" s="6"/>
-    </row>
-    <row r="14" spans="1:16" s="14" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A14" s="78" t="s">
+      <c r="A13" s="48"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="4"/>
+    </row>
+    <row r="14" spans="1:16" s="12" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A14" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="79"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="80">
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="58">
         <f>SUM(D10:D13)</f>
         <v>2</v>
       </c>
-      <c r="E14" s="80">
+      <c r="E14" s="58">
         <f>SUM(E10:E13)</f>
         <v>0</v>
       </c>
-      <c r="F14" s="80">
+      <c r="F14" s="58">
         <f>SUM(F10:F13)</f>
         <v>0</v>
       </c>
-      <c r="G14" s="80">
+      <c r="G14" s="58">
         <f>SUM(G10:G13)</f>
         <v>2</v>
       </c>
-      <c r="H14" s="81"/>
-      <c r="I14" s="82"/>
-      <c r="J14" s="83"/>
-      <c r="K14" s="84"/>
-      <c r="L14" s="85"/>
-      <c r="M14" s="86"/>
-      <c r="N14" s="87"/>
-    </row>
-    <row r="15" spans="1:16" s="14" customFormat="1" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A15" s="88"/>
-      <c r="B15" s="89"/>
-      <c r="C15" s="90"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="91"/>
-      <c r="G15" s="91"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="93"/>
-      <c r="J15" s="94"/>
-      <c r="K15" s="94"/>
-      <c r="L15" s="95"/>
-      <c r="M15" s="96"/>
-      <c r="N15" s="97"/>
-    </row>
-    <row r="16" spans="1:16" s="6" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A16" s="42" t="s">
+      <c r="H14" s="59"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="65"/>
+    </row>
+    <row r="15" spans="1:16" s="12" customFormat="1" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A15" s="66"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="73"/>
+      <c r="M15" s="74"/>
+      <c r="N15" s="75"/>
+    </row>
+    <row r="16" spans="1:16" s="4" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A16" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="44" t="s">
+      <c r="C16" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="45"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="47" t="s">
+      <c r="D16" s="23"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="49" t="s">
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="M16" s="50"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="52"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="30"/>
     </row>
     <row r="17" spans="1:16" ht="18.75" customHeight="1">
-      <c r="A17" s="53"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="60"/>
-      <c r="L17" s="61"/>
-      <c r="M17" s="62"/>
-      <c r="N17" s="62"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
     </row>
     <row r="18" spans="1:16" ht="18.75" customHeight="1">
-      <c r="A18" s="63" t="s">
+      <c r="A18" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="54"/>
-      <c r="C18" s="55" t="s">
+      <c r="B18" s="32"/>
+      <c r="C18" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="56">
+      <c r="D18" s="34">
         <v>5</v>
       </c>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="64">
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="42">
         <f t="shared" ref="G18:G21" si="1">D18+(E18*2)+(F18*2)</f>
         <v>5</v>
       </c>
-      <c r="H18" s="57"/>
-      <c r="I18" s="66" t="s">
+      <c r="H18" s="35"/>
+      <c r="I18" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="J18" s="67" t="s">
+      <c r="J18" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="K18" s="68"/>
-      <c r="L18" s="61" t="s">
+      <c r="K18" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="L18" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="M18" s="62"/>
-      <c r="N18" s="62"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
     </row>
     <row r="19" spans="1:16" ht="18.75" customHeight="1">
-      <c r="A19" s="63" t="s">
+      <c r="A19" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="54"/>
-      <c r="C19" s="55" t="s">
+      <c r="B19" s="32"/>
+      <c r="C19" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="56">
+      <c r="D19" s="34">
         <v>4</v>
       </c>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="64">
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="42">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="H19" s="57"/>
-      <c r="I19" s="66" t="s">
+      <c r="H19" s="35"/>
+      <c r="I19" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="J19" s="67" t="s">
+      <c r="J19" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="K19" s="68"/>
-      <c r="L19" s="61" t="s">
+      <c r="K19" s="46"/>
+      <c r="L19" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="M19" s="62"/>
-      <c r="N19" s="62"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
     </row>
     <row r="20" spans="1:16" ht="18.75" customHeight="1">
-      <c r="A20" s="70"/>
-      <c r="B20" s="71"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="73"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="68"/>
-      <c r="L20" s="74"/>
-      <c r="M20" s="75"/>
-      <c r="N20" s="75"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
+      <c r="A20" s="48"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
     </row>
     <row r="21" spans="1:16" ht="18.75" customHeight="1">
-      <c r="A21" s="63" t="s">
+      <c r="A21" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="54"/>
-      <c r="C21" s="55" t="s">
+      <c r="B21" s="32"/>
+      <c r="C21" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56">
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34">
         <v>13</v>
       </c>
-      <c r="G21" s="64">
+      <c r="G21" s="42">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="H21" s="57"/>
-      <c r="I21" s="66" t="s">
+      <c r="H21" s="35"/>
+      <c r="I21" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="67" t="s">
+      <c r="J21" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="K21" s="68"/>
-      <c r="L21" s="61" t="s">
+      <c r="K21" s="46"/>
+      <c r="L21" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="M21" s="62"/>
-      <c r="N21" s="62"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
     </row>
     <row r="22" spans="1:16" ht="18.75" customHeight="1">
-      <c r="A22" s="70"/>
-      <c r="B22" s="71"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="73"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="68"/>
-      <c r="L22" s="74"/>
-      <c r="M22" s="75"/>
-      <c r="N22" s="75"/>
-      <c r="O22" s="98"/>
-      <c r="P22" s="6"/>
+      <c r="A22" s="48"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="76"/>
+      <c r="P22" s="4"/>
     </row>
     <row r="23" spans="1:16" ht="18.75" customHeight="1">
-      <c r="A23" s="63" t="s">
+      <c r="A23" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="54"/>
-      <c r="C23" s="55" t="s">
+      <c r="B23" s="32"/>
+      <c r="C23" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="56">
+      <c r="D23" s="34">
         <v>3</v>
       </c>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="64">
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="42">
         <f t="shared" ref="G23" si="2">D23+(E23*2)+(F23*2)</f>
         <v>3</v>
       </c>
-      <c r="H23" s="57"/>
-      <c r="I23" s="66" t="s">
+      <c r="H23" s="35"/>
+      <c r="I23" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="J23" s="67" t="s">
+      <c r="J23" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="K23" s="68"/>
-      <c r="L23" s="61" t="s">
+      <c r="K23" s="46"/>
+      <c r="L23" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="M23" s="62"/>
-      <c r="N23" s="62"/>
-      <c r="O23" s="98"/>
-      <c r="P23" s="6"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="76"/>
+      <c r="P23" s="4"/>
     </row>
     <row r="24" spans="1:16" ht="18.75" customHeight="1">
-      <c r="A24" s="70"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="73"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="68"/>
-      <c r="L24" s="74"/>
-      <c r="M24" s="75"/>
-      <c r="N24" s="75"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
+      <c r="A24" s="48"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
     </row>
     <row r="25" spans="1:16" ht="18.75" customHeight="1">
-      <c r="A25" s="63" t="s">
+      <c r="A25" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="54"/>
-      <c r="C25" s="55" t="s">
+      <c r="B25" s="32"/>
+      <c r="C25" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="56">
+      <c r="D25" s="34">
         <v>20</v>
       </c>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="64">
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="42">
         <f t="shared" ref="G25" si="3">D25+(E25*2)+(F25*2)</f>
         <v>20</v>
       </c>
-      <c r="H25" s="57"/>
-      <c r="I25" s="66" t="s">
+      <c r="H25" s="35"/>
+      <c r="I25" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="J25" s="67" t="s">
+      <c r="J25" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="K25" s="68"/>
-      <c r="L25" s="61" t="s">
+      <c r="K25" s="46"/>
+      <c r="L25" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="M25" s="62"/>
-      <c r="N25" s="62"/>
-      <c r="O25" s="98"/>
-      <c r="P25" s="6"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="76"/>
+      <c r="P25" s="4"/>
     </row>
     <row r="26" spans="1:16" ht="18.75" customHeight="1">
-      <c r="A26" s="70"/>
-      <c r="B26" s="71"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="68"/>
-      <c r="K26" s="68"/>
-      <c r="L26" s="74"/>
-      <c r="M26" s="75"/>
-      <c r="N26" s="75"/>
-      <c r="O26" s="98"/>
-      <c r="P26" s="6"/>
+      <c r="A26" s="48"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="76"/>
+      <c r="P26" s="4"/>
     </row>
     <row r="27" spans="1:16" ht="18.75" customHeight="1">
-      <c r="A27" s="63" t="s">
+      <c r="A27" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="54"/>
-      <c r="C27" s="55" t="s">
+      <c r="B27" s="32"/>
+      <c r="C27" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56">
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34">
         <v>4</v>
       </c>
-      <c r="G27" s="64">
+      <c r="G27" s="42">
         <f t="shared" ref="G27" si="4">D27+(E27*2)+(F27*2)</f>
         <v>8</v>
       </c>
-      <c r="H27" s="57"/>
-      <c r="I27" s="66" t="s">
+      <c r="H27" s="35"/>
+      <c r="I27" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="J27" s="67" t="s">
+      <c r="J27" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="K27" s="68"/>
-      <c r="L27" s="61" t="s">
+      <c r="K27" s="46"/>
+      <c r="L27" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="M27" s="62"/>
-      <c r="N27" s="62"/>
-      <c r="O27" s="98"/>
-      <c r="P27" s="6"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="76"/>
+      <c r="P27" s="4"/>
     </row>
     <row r="28" spans="1:16" ht="18.75" customHeight="1">
-      <c r="A28" s="70"/>
-      <c r="B28" s="71"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="64"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="73"/>
-      <c r="J28" s="68"/>
-      <c r="K28" s="68"/>
-      <c r="L28" s="74"/>
-      <c r="M28" s="75"/>
-      <c r="N28" s="75"/>
-      <c r="O28" s="98"/>
-      <c r="P28" s="6"/>
+      <c r="A28" s="48"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="53"/>
+      <c r="N28" s="53"/>
+      <c r="O28" s="76"/>
+      <c r="P28" s="4"/>
     </row>
     <row r="29" spans="1:16" ht="18.75" customHeight="1">
-      <c r="A29" s="63" t="s">
+      <c r="A29" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="54"/>
-      <c r="C29" s="55" t="s">
+      <c r="B29" s="32"/>
+      <c r="C29" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="56">
+      <c r="D29" s="34">
         <v>3</v>
       </c>
-      <c r="E29" s="56"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="64">
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="42">
         <f t="shared" ref="G29" si="5">D29+(E29*2)+(F29*2)</f>
         <v>3</v>
       </c>
-      <c r="H29" s="57"/>
-      <c r="I29" s="66" t="s">
+      <c r="H29" s="35"/>
+      <c r="I29" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="J29" s="67" t="s">
+      <c r="J29" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="K29" s="68"/>
-      <c r="L29" s="61" t="s">
+      <c r="K29" s="46"/>
+      <c r="L29" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="M29" s="62"/>
-      <c r="N29" s="62"/>
-      <c r="O29" s="98"/>
-      <c r="P29" s="6"/>
-    </row>
-    <row r="30" spans="1:16" ht="16.5">
-      <c r="A30" s="63"/>
-      <c r="B30" s="54"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="99"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="66"/>
-      <c r="J30" s="100"/>
-      <c r="K30" s="101"/>
-      <c r="L30" s="61"/>
-      <c r="M30" s="62"/>
-      <c r="N30" s="102"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-    </row>
-    <row r="31" spans="1:16" s="14" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A31" s="78" t="s">
+      <c r="M29" s="40"/>
+      <c r="N29" s="40"/>
+      <c r="O29" s="76"/>
+      <c r="P29" s="4"/>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" s="41"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="77"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="78"/>
+      <c r="K30" s="79"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="80"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+    </row>
+    <row r="31" spans="1:16" s="12" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A31" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="79"/>
-      <c r="C31" s="79"/>
-      <c r="D31" s="80">
+      <c r="B31" s="57"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="58">
         <f>SUM(D17:D30)</f>
         <v>35</v>
       </c>
-      <c r="E31" s="80">
+      <c r="E31" s="58">
         <f>SUM(E17:E30)</f>
         <v>0</v>
       </c>
-      <c r="F31" s="80">
+      <c r="F31" s="58">
         <f>SUM(F17:F30)</f>
         <v>17</v>
       </c>
-      <c r="G31" s="80">
+      <c r="G31" s="58">
         <f>SUM(G17:G30)</f>
         <v>69</v>
       </c>
-      <c r="H31" s="81"/>
-      <c r="I31" s="82"/>
-      <c r="J31" s="83"/>
-      <c r="K31" s="84"/>
-      <c r="L31" s="85"/>
-      <c r="M31" s="86"/>
-      <c r="N31" s="87"/>
-    </row>
-    <row r="32" spans="1:16" ht="16.5">
-      <c r="A32" s="53"/>
-      <c r="B32" s="54"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="103"/>
-      <c r="I32" s="58"/>
-      <c r="J32" s="104"/>
-      <c r="K32" s="104"/>
-      <c r="L32" s="61"/>
-      <c r="M32" s="62"/>
-      <c r="N32" s="62"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
-    </row>
-    <row r="33" spans="1:16" ht="16.5">
-      <c r="A33" s="78" t="s">
+      <c r="H31" s="59"/>
+      <c r="I31" s="60"/>
+      <c r="J31" s="61"/>
+      <c r="K31" s="62"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="64"/>
+      <c r="N31" s="65"/>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="31"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="81"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="82"/>
+      <c r="K32" s="82"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="40"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="105"/>
-      <c r="C33" s="106"/>
-      <c r="D33" s="107">
+      <c r="B33" s="83"/>
+      <c r="C33" s="84"/>
+      <c r="D33" s="85">
         <f>SUM(D14+D31)</f>
         <v>37</v>
       </c>
-      <c r="E33" s="107">
+      <c r="E33" s="85">
         <f t="shared" ref="E33:G33" si="6">SUM(E14+E31)</f>
         <v>0</v>
       </c>
-      <c r="F33" s="107">
+      <c r="F33" s="85">
         <f t="shared" si="6"/>
         <v>17</v>
       </c>
-      <c r="G33" s="107">
+      <c r="G33" s="85">
         <f t="shared" si="6"/>
         <v>71</v>
       </c>
-      <c r="H33" s="108" t="s">
+      <c r="H33" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="I33" s="109"/>
-      <c r="J33" s="110"/>
-      <c r="K33" s="110"/>
-      <c r="L33" s="111"/>
-      <c r="M33" s="108"/>
-      <c r="N33" s="108"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
-    </row>
-    <row r="34" spans="1:16" ht="16.5">
-      <c r="A34" s="112"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="113"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="6"/>
-    </row>
-    <row r="35" spans="1:16" ht="16.5">
-      <c r="A35" s="112"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="113"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
-    </row>
-    <row r="36" spans="1:16" ht="16.5">
-      <c r="A36" s="114"/>
-      <c r="B36" s="114"/>
-      <c r="C36" s="6" t="s">
+      <c r="I33" s="87"/>
+      <c r="J33" s="88"/>
+      <c r="K33" s="88"/>
+      <c r="L33" s="89"/>
+      <c r="M33" s="86"/>
+      <c r="N33" s="86"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" s="90"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="91"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" s="90"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="91"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" s="92"/>
+      <c r="B36" s="92"/>
+      <c r="C36" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="4">
         <v>0</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="4">
         <v>0</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36" s="4">
         <v>0</v>
       </c>
-      <c r="G36" s="115">
+      <c r="G36" s="93">
         <f>D36+(E36+F36)*2</f>
         <v>0</v>
       </c>
-      <c r="H36" s="116" t="s">
+      <c r="H36" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="I36" s="13"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="114"/>
-      <c r="M36" s="114"/>
-      <c r="N36" s="114"/>
-      <c r="O36" s="6"/>
-      <c r="P36" s="6"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="92"/>
+      <c r="M36" s="92"/>
+      <c r="N36" s="92"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
     </row>
     <row r="37" spans="1:16" ht="17.25" thickBot="1">
-      <c r="A37" s="114"/>
-      <c r="B37" s="114"/>
-      <c r="C37" s="117" t="s">
+      <c r="A37" s="92"/>
+      <c r="B37" s="92"/>
+      <c r="C37" s="95" t="s">
         <v>67</v>
       </c>
-      <c r="D37" s="117">
+      <c r="D37" s="95">
         <v>6</v>
       </c>
-      <c r="E37" s="117">
+      <c r="E37" s="95">
         <v>0</v>
       </c>
-      <c r="F37" s="117">
+      <c r="F37" s="95">
         <v>6</v>
       </c>
-      <c r="G37" s="118">
+      <c r="G37" s="96">
         <f>D37+(E37+F37)*2</f>
         <v>18</v>
       </c>
-      <c r="H37" s="119" t="s">
+      <c r="H37" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="I37" s="13"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="114"/>
-      <c r="M37" s="114"/>
-      <c r="N37" s="114"/>
-      <c r="O37" s="6"/>
-      <c r="P37" s="6"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="92"/>
+      <c r="M37" s="92"/>
+      <c r="N37" s="92"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
     </row>
     <row r="38" spans="1:16" ht="17.25">
-      <c r="A38" s="112"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6" t="s">
+      <c r="A38" s="90"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D38" s="120">
+      <c r="D38" s="98">
         <f>SUM(D36:D37)</f>
         <v>6</v>
       </c>
-      <c r="E38" s="120">
+      <c r="E38" s="98">
         <f>SUM(E36:E37)</f>
         <v>0</v>
       </c>
-      <c r="F38" s="120">
+      <c r="F38" s="98">
         <f>SUM(F36:F37)</f>
         <v>6</v>
       </c>
-      <c r="G38" s="121">
+      <c r="G38" s="99">
         <f>SUM(G36:G37)</f>
         <v>18</v>
       </c>
-      <c r="H38" s="122" t="s">
+      <c r="H38" s="100" t="s">
         <v>66</v>
       </c>
-      <c r="I38" s="6"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
-      <c r="O38" s="6"/>
-      <c r="P38" s="6"/>
-    </row>
-    <row r="39" spans="1:16" ht="16.5">
-      <c r="A39" s="112"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="113"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="6"/>
-      <c r="N39" s="6"/>
-      <c r="O39" s="6"/>
-      <c r="P39" s="6"/>
-    </row>
-    <row r="40" spans="1:16" ht="16.5">
-      <c r="A40" s="112"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="113"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18"/>
-      <c r="L40" s="13"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
-      <c r="O40" s="6"/>
-      <c r="P40" s="6"/>
-    </row>
-    <row r="41" spans="1:16" ht="16.5">
-      <c r="A41" s="112"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="113"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="18"/>
-      <c r="L41" s="13"/>
-      <c r="M41" s="6"/>
-      <c r="N41" s="6"/>
-      <c r="O41" s="6"/>
-      <c r="P41" s="6"/>
-    </row>
-    <row r="42" spans="1:16" ht="16.5">
-      <c r="A42" s="123"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="113"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="18"/>
-      <c r="L42" s="13"/>
-      <c r="M42" s="6"/>
-      <c r="N42" s="6"/>
-      <c r="O42" s="6"/>
-      <c r="P42" s="6"/>
-    </row>
-    <row r="43" spans="1:16" ht="16.5">
-      <c r="A43" s="123"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="113"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="18"/>
-      <c r="K43" s="18"/>
-      <c r="L43" s="13"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
-      <c r="O43" s="6"/>
-      <c r="P43" s="6"/>
-    </row>
-    <row r="44" spans="1:16" ht="16.5">
-      <c r="A44" s="112"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="113"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="18"/>
-      <c r="K44" s="18"/>
-      <c r="L44" s="13"/>
-      <c r="M44" s="6"/>
-      <c r="N44" s="6"/>
-      <c r="O44" s="6"/>
-      <c r="P44" s="6"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39" s="90"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="91"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40" s="90"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="91"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41" s="90"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="91"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42" s="101"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="91"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43" s="101"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="91"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44" s="90"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="91"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -3202,6 +3234,7 @@
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="K7:K8"/>
   </mergeCells>
+  <phoneticPr fontId="57" type="noConversion"/>
   <conditionalFormatting sqref="I4">
     <cfRule type="duplicateValues" dxfId="15" priority="14"/>
   </conditionalFormatting>
